--- a/Stocks/UCOBANK.xlsx
+++ b/Stocks/UCOBANK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>42</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>33.564253449563637</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>33.301135449718707</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>40.480741555575413</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>1.3999999999999986</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>2.4499999999999957</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.57142857142857184</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>34.104808374817026</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>-0.30406792502602542</v>
       </c>
       <c r="Y67">
         <v>-0.34303411029651382</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>31.3</v>
+      </c>
+      <c r="D83">
+        <v>31.85</v>
+      </c>
+      <c r="E83">
+        <v>31</v>
+      </c>
+      <c r="F83">
+        <v>31.4</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>31.416666666666668</v>
+      </c>
+      <c r="H83">
+        <v>31.027510796917461</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>31.368049875209547</v>
+      </c>
+      <c r="K83">
+        <v>30.386296828438699</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>63.181021019959374</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>0.85000000000000142</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.4705882352941152</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>31.041327707709673</v>
+      </c>
+      <c r="W83">
+        <v>31.861522546439588</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-0.82019483872991472</v>
+      </c>
+      <c r="Y83">
+        <v>-0.89693951350023327</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>31.5</v>
+      </c>
+      <c r="D84">
+        <v>31.5</v>
+      </c>
+      <c r="E84">
+        <v>30.85</v>
+      </c>
+      <c r="F84">
+        <v>30.9</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>31.083333333333332</v>
+      </c>
+      <c r="H84">
+        <v>31.055422065125398</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>31.397372125162981</v>
+      </c>
+      <c r="K84">
+        <v>30.489341977674545</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>49.989206656510774</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>0.64999999999999858</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>7.6923076923072722E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>31.019584983446645</v>
+      </c>
+      <c r="W84">
+        <v>31.790298654110728</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-0.77071367066408314</v>
+      </c>
+      <c r="Y84">
+        <v>-0.87169434493300324</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>31.5</v>
+      </c>
+      <c r="D85">
+        <v>31.5</v>
+      </c>
+      <c r="E85">
+        <v>30.65</v>
+      </c>
+      <c r="F85">
+        <v>30.8</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>30.983333333333334</v>
+      </c>
+      <c r="H85">
+        <v>31.019377699229366</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>31.420178319571207</v>
+      </c>
+      <c r="K85">
+        <v>30.525043760413535</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>47.509293502580299</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>0.15000000000000213</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>0.85000000000000142</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.17647058823529632</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>30.985802678301006</v>
+      </c>
+      <c r="W85">
+        <v>31.716943198250675</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-0.731140519949669</v>
+      </c>
+      <c r="Y85">
+        <v>-0.84358357993633637</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>30.95</v>
+      </c>
+      <c r="D86">
+        <v>31.15</v>
+      </c>
+      <c r="E86">
+        <v>30.8</v>
+      </c>
+      <c r="F86">
+        <v>31.05</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>31</v>
+      </c>
+      <c r="H86">
+        <v>31.009688849614683</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>31.360138692999826</v>
+      </c>
+      <c r="K86">
+        <v>30.586145146988304</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>54.554604051592484</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>0.34999999999999787</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.71428571428571863</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>30.995679189331621</v>
+      </c>
+      <c r="W86">
+        <v>31.667539998380256</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-0.67186080904863488</v>
+      </c>
+      <c r="Y86">
+        <v>-0.80923902575879603</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>30.5</v>
+      </c>
+      <c r="D87">
+        <v>31.4</v>
+      </c>
+      <c r="E87">
+        <v>30.5</v>
+      </c>
+      <c r="F87">
+        <v>31.15</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>31.016666666666666</v>
+      </c>
+      <c r="H87">
+        <v>31.013177758140674</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>31.368996761222085</v>
+      </c>
+      <c r="K87">
+        <v>30.567001780990903</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>57.412644681103664</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>0.64999999999999858</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.72222222222222177</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>31.01942085251137</v>
+      </c>
+      <c r="W87">
+        <v>31.629203702203942</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-0.60978284969257146</v>
+      </c>
+      <c r="Y87">
+        <v>-0.76934779054555114</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>30.95</v>
+      </c>
+      <c r="D88">
+        <v>31.35</v>
+      </c>
+      <c r="E88">
+        <v>30.85</v>
+      </c>
+      <c r="F88">
+        <v>31</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>31.066666666666666</v>
+      </c>
+      <c r="H88">
+        <v>31.03992221240367</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>31.36477525872829</v>
+      </c>
+      <c r="K88">
+        <v>30.629890274104035</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>51.3567625022634</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>0.5</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>31.016433029048084</v>
+      </c>
+      <c r="W88">
+        <v>31.582596020559205</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-0.56616299151112059</v>
+      </c>
+      <c r="Y88">
+        <v>-0.72871083073866505</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>31.3</v>
+      </c>
+      <c r="D89">
+        <v>31.35</v>
+      </c>
+      <c r="E89">
+        <v>31</v>
+      </c>
+      <c r="F89">
+        <v>31.15</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>31.166666666666668</v>
+      </c>
+      <c r="H89">
+        <v>31.103294439535169</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>31.361491867899783</v>
+      </c>
+      <c r="K89">
+        <v>30.712136879858694</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>57.023244379092205</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>0.35000000000000142</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.42857142857142277</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>31.036981793809918</v>
+      </c>
+      <c r="W89">
+        <v>31.550551870888153</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-0.51357007707823499</v>
+      </c>
+      <c r="Y89">
+        <v>-0.68568268000657906</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>32</v>
+      </c>
+      <c r="D90">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E90">
+        <v>31.8</v>
+      </c>
+      <c r="F90">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>32.466666666666661</v>
+      </c>
+      <c r="H90">
+        <v>31.784980553100915</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>31.68116034169983</v>
+      </c>
+      <c r="K90">
+        <v>30.953884239890094</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>83.481573288421004</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>0.99999999999999645</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>0.99999999999999645</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V90">
+        <v>31.308215363993007</v>
+      </c>
+      <c r="W90">
+        <v>31.643103584155696</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-0.33488822016268927</v>
+      </c>
+      <c r="Y90">
+        <v>-0.61552378803780106</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD90">
+        <f t="shared" si="35"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="AE90">
+        <f t="shared" si="36"/>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AF90">
+        <f t="shared" si="37"/>
+        <v>32.300000000000004</v>
+      </c>
+      <c r="AG90">
+        <f t="shared" si="38"/>
+        <v>32.4</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>32.9</v>
+      </c>
+      <c r="D91">
+        <v>32.9</v>
+      </c>
+      <c r="E91">
+        <v>31.4</v>
+      </c>
+      <c r="F91">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>32.166666666666664</v>
+      </c>
+      <c r="H91">
+        <v>31.97582360988379</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>31.952013599099867</v>
+      </c>
+      <c r="K91">
+        <v>31.053021075470074</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>65.228253790180162</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0.80000000000000426</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>1.5</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.53333333333333621</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>31.445413000301777</v>
+      </c>
+      <c r="W91">
+        <v>31.684355170514532</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-0.23894217021275566</v>
+      </c>
+      <c r="Y91">
+        <v>-0.540207464472792</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>32.5</v>
+      </c>
+      <c r="D92">
+        <v>33</v>
+      </c>
+      <c r="E92">
+        <v>31.55</v>
+      </c>
+      <c r="F92">
+        <v>32.25</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>32.266666666666666</v>
+      </c>
+      <c r="H92">
+        <v>32.121245138275228</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>32.184899465966566</v>
+      </c>
+      <c r="K92">
+        <v>31.163460836476723</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>66.002583483237132</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>1.4499999999999993</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.48275862068965492</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>31.569195615639966</v>
+      </c>
+      <c r="W92">
+        <v>31.726254787513454</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-0.15705917187348817</v>
+      </c>
+      <c r="Y92">
+        <v>-0.46357780595293124</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="D93">
+        <v>32.5</v>
+      </c>
+      <c r="E93">
+        <v>31.05</v>
+      </c>
+      <c r="F93">
+        <v>31.2</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>31.583333333333332</v>
+      </c>
+      <c r="H93">
+        <v>31.852289235804278</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>32.254921806862882</v>
+      </c>
+      <c r="K93">
+        <v>31.138247317259673</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>41.653584889621051</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>1.4499999999999993</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.10344827586206803</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>31.512396290156893</v>
+      </c>
+      <c r="W93">
+        <v>31.687272951401347</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-0.17487666124445411</v>
+      </c>
+      <c r="Y93">
+        <v>-0.40583757701123579</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>31.5</v>
+      </c>
+      <c r="D94">
+        <v>32</v>
+      </c>
+      <c r="E94">
+        <v>30.5</v>
+      </c>
+      <c r="F94">
+        <v>31.15</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>31.216666666666669</v>
+      </c>
+      <c r="H94">
+        <v>31.534477951235473</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>32.19827251644891</v>
+      </c>
+      <c r="K94">
+        <v>30.996414580090857</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>40.758570875318433</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>0.64999999999999858</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>1.5</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.4333333333333324</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>31.456643014748138</v>
+      </c>
+      <c r="W94">
+        <v>31.647474955001247</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-0.19083194025310846</v>
+      </c>
+      <c r="Y94">
+        <v>-0.36283644965961032</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>31.05</v>
+      </c>
+      <c r="D95">
+        <v>31.85</v>
+      </c>
+      <c r="E95">
+        <v>31.05</v>
+      </c>
+      <c r="F95">
+        <v>31.3</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>31.400000000000002</v>
+      </c>
+      <c r="H95">
+        <v>31.46723897561774</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>32.120878623904709</v>
+      </c>
+      <c r="K95">
+        <v>31.008322451181776</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>45.176092694336788</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.31249999999999972</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>31.432544089402271</v>
+      </c>
+      <c r="W95">
+        <v>31.6217360694456</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-0.18919198004332927</v>
+      </c>
+      <c r="Y95">
+        <v>-0.32810755573635408</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>31.3</v>
+      </c>
+      <c r="D96">
+        <v>31.55</v>
+      </c>
+      <c r="E96">
+        <v>31.1</v>
+      </c>
+      <c r="F96">
+        <v>31.25</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>31.3</v>
+      </c>
+      <c r="H96">
+        <v>31.383619487808872</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>31.994016707481439</v>
+      </c>
+      <c r="K96">
+        <v>31.028695239808048</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>43.814765785174473</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>0.44999999999999929</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.33333333333333071</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>31.404460383340382</v>
+      </c>
+      <c r="W96">
+        <v>31.594200064301482</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-0.18973968096110028</v>
+      </c>
+      <c r="Y96">
+        <v>-0.30043398078130334</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>31.35</v>
+      </c>
+      <c r="D97">
+        <v>32</v>
+      </c>
+      <c r="E97">
+        <v>30.75</v>
+      </c>
+      <c r="F97">
+        <v>31</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>31.25</v>
+      </c>
+      <c r="H97">
+        <v>31.316809743904436</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>31.995346328041119</v>
+      </c>
+      <c r="K97">
+        <v>30.96676296429515</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>36.870682008759445</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>1.25</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.2</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>31.342235708980322</v>
+      </c>
+      <c r="W97">
+        <v>31.550185244723593</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-0.20794953574327124</v>
+      </c>
+      <c r="Y97">
+        <v>-0.28193709177369691</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>31.15</v>
+      </c>
+      <c r="D98">
+        <v>31.5</v>
+      </c>
+      <c r="E98">
+        <v>31</v>
+      </c>
+      <c r="F98">
+        <v>31.1</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>31.2</v>
+      </c>
+      <c r="H98">
+        <v>31.258404871952216</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>31.885269366254203</v>
+      </c>
+      <c r="K98">
+        <v>30.97414897222956</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>41.505962908953194</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>0.5</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>31.304968676829503</v>
+      </c>
+      <c r="W98">
+        <v>31.516838189558882</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-0.21186951272937904</v>
+      </c>
+      <c r="Y98">
+        <v>-0.26792357596483335</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>31.4</v>
+      </c>
+      <c r="D99">
+        <v>31.4</v>
+      </c>
+      <c r="E99">
+        <v>30.9</v>
+      </c>
+      <c r="F99">
+        <v>31.1</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>31.133333333333336</v>
+      </c>
+      <c r="H99">
+        <v>31.195869102642774</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>31.777431729308823</v>
+      </c>
+      <c r="K99">
+        <v>30.957671422845213</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>41.505962908953194</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>0.5</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>31.27343503424035</v>
+      </c>
+      <c r="W99">
+        <v>31.485961286628594</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-0.21252625238824407</v>
+      </c>
+      <c r="Y99">
+        <v>-0.25684411124951551</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>31.5</v>
+      </c>
+      <c r="D100">
+        <v>31.8</v>
+      </c>
+      <c r="E100">
+        <v>31</v>
+      </c>
+      <c r="F100">
+        <v>31</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>31.266666666666666</v>
+      </c>
+      <c r="H100">
+        <v>31.23126788465472</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>31.782446900573529</v>
+      </c>
+      <c r="K100">
+        <v>30.967077773324053</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>37.234201121407516</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>31.23136810589568</v>
+      </c>
+      <c r="W100">
+        <v>31.449964154285734</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-0.21859604839005442</v>
+      </c>
+      <c r="Y100">
+        <v>-0.24919449867762328</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>31.15</v>
+      </c>
+      <c r="D101">
+        <v>31.25</v>
+      </c>
+      <c r="E101">
+        <v>30.5</v>
+      </c>
+      <c r="F101">
+        <v>30.7</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>30.816666666666666</v>
+      </c>
+      <c r="H101">
+        <v>31.023967275660695</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>31.664125367112746</v>
+      </c>
+      <c r="K101">
+        <v>30.863282712585374</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>26.865528040326968</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>0.75</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.26666666666666572</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>31.149619166527113</v>
+      </c>
+      <c r="W101">
+        <v>31.394411253968272</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-0.24479208744115866</v>
+      </c>
+      <c r="Y101">
+        <v>-0.24831401643033035</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>30.65</v>
+      </c>
+      <c r="D102">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E102">
+        <v>30.45</v>
+      </c>
+      <c r="F102">
+        <v>31.05</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>31.599999999999998</v>
+      </c>
+      <c r="H102">
+        <v>31.311983637830345</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>32.027653063309913</v>
+      </c>
+      <c r="K102">
+        <v>30.771442109788623</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>47.987887778695601</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>2.8499999999999979</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.21052631578947434</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>31.134293140907559</v>
+      </c>
+      <c r="W102">
+        <v>31.368899309229882</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-0.23460616832232262</v>
+      </c>
+      <c r="Y102">
+        <v>-0.24557244680872881</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>31.55</v>
+      </c>
+      <c r="D103">
+        <v>31.8</v>
+      </c>
+      <c r="E103">
+        <v>30.55</v>
+      </c>
+      <c r="F103">
+        <v>30.6</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>30.983333333333334</v>
+      </c>
+      <c r="H103">
+        <v>31.147658485581839</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>31.977063493685488</v>
+      </c>
+      <c r="K103">
+        <v>30.722232752057817</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>32.774860616961099</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>1.25</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>4.000000000000057E-2</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V103">
+        <v>31.052094196152549</v>
+      </c>
+      <c r="W103">
+        <v>31.311943804842482</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-0.25984960868993312</v>
+      </c>
+      <c r="Y103">
+        <v>-0.24842787918496967</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>30.7</v>
+      </c>
+      <c r="D104">
+        <v>31.25</v>
+      </c>
+      <c r="E104">
+        <v>30.6</v>
+      </c>
+      <c r="F104">
+        <v>30.6</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>30.816666666666666</v>
+      </c>
+      <c r="H104">
+        <v>30.982162576124253</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>31.815493828422046</v>
+      </c>
+      <c r="K104">
+        <v>30.69506991826719</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>32.774860616961092</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>0.64999999999999858</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>30.982541242898311</v>
+      </c>
+      <c r="W104">
+        <v>31.259207226706003</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-0.27666598380769258</v>
+      </c>
+      <c r="Y104">
+        <v>-0.25407550010951424</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
